--- a/backend/Templates/Form_1BAct6_Export_Template.xlsx
+++ b/backend/Templates/Form_1BAct6_Export_Template.xlsx
@@ -1,25 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29127"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Software_Development_Project\AFN-II_Database_Web_Application\backend\Templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E832A9B-CA49-40EC-80BD-5BE6655D40AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2588645D-3B7A-48C3-89A1-4DDEB5EA48BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId2"/>
-  </externalReferences>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$B$8:$AG$8</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$B$8:$AH$8</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -42,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="42">
   <si>
     <t>ລ/ດ</t>
   </si>
@@ -353,6 +350,13 @@
   </si>
   <si>
     <t>Yes/No</t>
+  </si>
+  <si>
+    <t>ຕຳແໜ່ງໃນກຸ່ມ
+Position in the group.
+1. ຫົວໜ້າກຸ່ມ Group head
+2. ຮອງຫົວໜ້າກຸ່ມ Deputy group head
+3. ສະມາຊິກກຸ່ມ Group member</t>
   </si>
 </sst>
 </file>
@@ -715,16 +719,52 @@
     <xf numFmtId="0" fontId="7" fillId="3" borderId="5" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="8" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="12" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="8" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="3" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="18" fillId="6" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="7" fillId="5" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="7" fillId="5" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="3" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="3" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -736,6 +776,99 @@
     <xf numFmtId="0" fontId="6" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="7" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="6" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="8" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="6" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="8" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="9" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="10" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="11" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="3" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="3" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="3" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="8" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="5" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="5" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="9" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="11" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="5" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -748,157 +881,28 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="6" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="8" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="8" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="9" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="10" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="11" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="8" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="5" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="3" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="3" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="3" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="7" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="6" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="5" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="9" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="11" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="5" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="8" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="12" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="3" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="8" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="8" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="8" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="3" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="3" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="18" fillId="6" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -919,74 +923,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <xxl21:alternateUrls>
-      <xxl21:absoluteUrl r:id="rId2"/>
-    </xxl21:alternateUrls>
-    <sheetNames>
-      <sheetName val="Home"/>
-      <sheetName val="Outreach_Cal_FML"/>
-      <sheetName val="Outreach_Cal"/>
-      <sheetName val="Logframe_update_quater"/>
-      <sheetName val="Logframe_update"/>
-      <sheetName val="Main_Dashboard"/>
-      <sheetName val="Main_Dashboard_Data"/>
-      <sheetName val="CB_for_Staff"/>
-      <sheetName val="CB_for_villagers"/>
-      <sheetName val="1A.1"/>
-      <sheetName val="1A.2"/>
-      <sheetName val="1A.3a"/>
-      <sheetName val="1A.3b"/>
-      <sheetName val="1A.4"/>
-      <sheetName val="1A.5a"/>
-      <sheetName val="1A.5b"/>
-      <sheetName val="1B.Act6"/>
-      <sheetName val="1B.Act7"/>
-      <sheetName val="1B.Act8"/>
-      <sheetName val="2.Act1"/>
-      <sheetName val="2.Act2"/>
-      <sheetName val="2.Act3"/>
-      <sheetName val="3.1a"/>
-      <sheetName val="3.1b"/>
-      <sheetName val="3.Act2"/>
-    </sheetNames>
-    <definedNames>
-      <definedName name="OneBAct6_English"/>
-      <definedName name="OneBAct6_Lao"/>
-    </definedNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5"/>
-      <sheetData sheetId="6"/>
-      <sheetData sheetId="7"/>
-      <sheetData sheetId="8"/>
-      <sheetData sheetId="9"/>
-      <sheetData sheetId="10"/>
-      <sheetData sheetId="11"/>
-      <sheetData sheetId="12"/>
-      <sheetData sheetId="13"/>
-      <sheetData sheetId="14"/>
-      <sheetData sheetId="15"/>
-      <sheetData sheetId="16"/>
-      <sheetData sheetId="17"/>
-      <sheetData sheetId="18"/>
-      <sheetData sheetId="19"/>
-      <sheetData sheetId="20"/>
-      <sheetData sheetId="21"/>
-      <sheetData sheetId="22"/>
-      <sheetData sheetId="23"/>
-      <sheetData sheetId="24"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1253,18 +1189,18 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AG8"/>
+  <dimension ref="A1:AH8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AC15" sqref="AC15"/>
+    <sheetView tabSelected="1" topLeftCell="T1" workbookViewId="0">
+      <selection activeCell="T12" sqref="T12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="3.85546875" style="1" customWidth="1"/>
     <col min="2" max="2" width="5" style="1" customWidth="1"/>
-    <col min="3" max="3" width="13.140625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="12.42578125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="15.140625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="15" style="1" customWidth="1"/>
     <col min="5" max="5" width="14.28515625" style="1" customWidth="1"/>
     <col min="6" max="6" width="14" style="1" customWidth="1"/>
     <col min="7" max="7" width="13.5703125" style="1" customWidth="1"/>
@@ -1280,317 +1216,325 @@
     <col min="17" max="17" width="16.140625" style="1" customWidth="1"/>
     <col min="18" max="18" width="20" style="1" customWidth="1"/>
     <col min="19" max="19" width="18.7109375" style="1" customWidth="1"/>
-    <col min="20" max="20" width="17.140625" style="3" customWidth="1"/>
-    <col min="21" max="22" width="9.140625" style="3"/>
-    <col min="23" max="23" width="17.42578125" style="3" customWidth="1"/>
-    <col min="24" max="24" width="17" style="3" customWidth="1"/>
-    <col min="25" max="25" width="15.85546875" style="3" customWidth="1"/>
-    <col min="26" max="26" width="15.42578125" style="3" customWidth="1"/>
-    <col min="27" max="27" width="15.7109375" style="3" customWidth="1"/>
-    <col min="28" max="28" width="13.85546875" style="3" customWidth="1"/>
-    <col min="29" max="29" width="18.28515625" style="3" customWidth="1"/>
-    <col min="30" max="30" width="15.5703125" style="3" customWidth="1"/>
-    <col min="31" max="31" width="14.7109375" style="3" customWidth="1"/>
-    <col min="32" max="32" width="12.7109375" style="3" customWidth="1"/>
-    <col min="33" max="33" width="9.140625" style="3"/>
-    <col min="34" max="16384" width="9.140625" style="1"/>
+    <col min="20" max="20" width="29" style="1" customWidth="1"/>
+    <col min="21" max="21" width="17.140625" style="3" customWidth="1"/>
+    <col min="22" max="23" width="9.140625" style="3"/>
+    <col min="24" max="24" width="17.42578125" style="3" customWidth="1"/>
+    <col min="25" max="25" width="17" style="3" customWidth="1"/>
+    <col min="26" max="26" width="15.85546875" style="3" customWidth="1"/>
+    <col min="27" max="27" width="15.42578125" style="3" customWidth="1"/>
+    <col min="28" max="28" width="15.7109375" style="3" customWidth="1"/>
+    <col min="29" max="29" width="18.85546875" style="3" customWidth="1"/>
+    <col min="30" max="30" width="18.28515625" style="3" customWidth="1"/>
+    <col min="31" max="31" width="19.85546875" style="3" customWidth="1"/>
+    <col min="32" max="32" width="20" style="3" customWidth="1"/>
+    <col min="33" max="33" width="18" style="3" customWidth="1"/>
+    <col min="34" max="34" width="9.140625" style="3"/>
+    <col min="35" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" s="10" customFormat="1" ht="22.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="44" t="s">
+    <row r="1" spans="1:34" s="10" customFormat="1" ht="22.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="38" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="45"/>
-      <c r="C1" s="76"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
-      <c r="F1" s="46"/>
-      <c r="H1" s="47" t="s">
+      <c r="B1" s="39"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="H1" s="42" t="s">
         <v>20</v>
       </c>
-      <c r="I1" s="47"/>
-      <c r="J1" s="47"/>
-      <c r="K1" s="47"/>
-      <c r="L1" s="47"/>
-      <c r="M1" s="47"/>
-      <c r="N1" s="47"/>
-      <c r="P1" s="37" t="s">
+      <c r="I1" s="42"/>
+      <c r="J1" s="42"/>
+      <c r="K1" s="42"/>
+      <c r="L1" s="42"/>
+      <c r="M1" s="42"/>
+      <c r="N1" s="42"/>
+      <c r="P1" s="44" t="s">
         <v>9</v>
       </c>
-      <c r="Q1" s="37"/>
-      <c r="R1" s="37"/>
-      <c r="S1" s="37"/>
-      <c r="T1" s="37"/>
-      <c r="U1" s="37"/>
-      <c r="V1" s="37"/>
-      <c r="W1" s="37"/>
-      <c r="X1" s="37"/>
-      <c r="Y1" s="37"/>
-      <c r="Z1" s="37"/>
-      <c r="AA1" s="37"/>
-      <c r="AB1" s="37"/>
-      <c r="AC1" s="11"/>
+      <c r="Q1" s="44"/>
+      <c r="R1" s="44"/>
+      <c r="S1" s="44"/>
+      <c r="T1" s="44"/>
+      <c r="U1" s="44"/>
+      <c r="V1" s="44"/>
+      <c r="W1" s="44"/>
+      <c r="X1" s="44"/>
+      <c r="Y1" s="44"/>
+      <c r="Z1" s="44"/>
+      <c r="AA1" s="44"/>
+      <c r="AB1" s="44"/>
+      <c r="AC1" s="44"/>
       <c r="AD1" s="11"/>
-      <c r="AE1" s="12"/>
+      <c r="AE1" s="11"/>
       <c r="AF1" s="12"/>
       <c r="AG1" s="12"/>
+      <c r="AH1" s="12"/>
     </row>
-    <row r="2" spans="1:33" s="10" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="48"/>
-      <c r="B2" s="49"/>
-      <c r="C2" s="77"/>
-      <c r="D2" s="50"/>
-      <c r="E2" s="50"/>
-      <c r="F2" s="50"/>
-      <c r="G2" s="50"/>
-      <c r="H2" s="51"/>
-      <c r="I2" s="51"/>
-      <c r="J2" s="51"/>
-      <c r="K2" s="51"/>
-      <c r="L2" s="51"/>
-      <c r="M2" s="51"/>
-      <c r="N2" s="51"/>
+    <row r="2" spans="1:34" s="10" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="40"/>
+      <c r="B2" s="41"/>
+      <c r="C2" s="27"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="20"/>
+      <c r="G2" s="20"/>
+      <c r="H2" s="43"/>
+      <c r="I2" s="43"/>
+      <c r="J2" s="43"/>
+      <c r="K2" s="43"/>
+      <c r="L2" s="43"/>
+      <c r="M2" s="43"/>
+      <c r="N2" s="43"/>
       <c r="O2" s="13"/>
-      <c r="P2" s="38" t="s">
+      <c r="P2" s="45" t="s">
         <v>10</v>
       </c>
-      <c r="Q2" s="38"/>
-      <c r="R2" s="38"/>
-      <c r="S2" s="38"/>
-      <c r="T2" s="38"/>
-      <c r="U2" s="38"/>
-      <c r="V2" s="38"/>
-      <c r="W2" s="38"/>
-      <c r="X2" s="38"/>
-      <c r="Y2" s="38"/>
-      <c r="Z2" s="38"/>
-      <c r="AA2" s="38"/>
-      <c r="AB2" s="38"/>
-      <c r="AC2" s="14"/>
+      <c r="Q2" s="45"/>
+      <c r="R2" s="45"/>
+      <c r="S2" s="45"/>
+      <c r="T2" s="45"/>
+      <c r="U2" s="45"/>
+      <c r="V2" s="45"/>
+      <c r="W2" s="45"/>
+      <c r="X2" s="45"/>
+      <c r="Y2" s="45"/>
+      <c r="Z2" s="45"/>
+      <c r="AA2" s="45"/>
+      <c r="AB2" s="45"/>
+      <c r="AC2" s="45"/>
       <c r="AD2" s="14"/>
-      <c r="AE2" s="15"/>
+      <c r="AE2" s="14"/>
       <c r="AF2" s="15"/>
       <c r="AG2" s="15"/>
+      <c r="AH2" s="15"/>
     </row>
-    <row r="3" spans="1:33" s="10" customFormat="1" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:34" s="10" customFormat="1" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="16"/>
       <c r="C3" s="16"/>
-      <c r="D3" s="50"/>
-      <c r="E3" s="50"/>
-      <c r="F3" s="50"/>
-      <c r="G3" s="50"/>
-      <c r="H3" s="50"/>
-      <c r="I3" s="50"/>
-      <c r="J3" s="50"/>
-      <c r="K3" s="50"/>
-      <c r="L3" s="50"/>
-      <c r="M3" s="50"/>
-      <c r="N3" s="50"/>
-      <c r="V3" s="78"/>
-      <c r="X3" s="78"/>
-      <c r="Y3" s="78"/>
-      <c r="AB3" s="15"/>
+      <c r="D3" s="20"/>
+      <c r="E3" s="20"/>
+      <c r="F3" s="20"/>
+      <c r="G3" s="20"/>
+      <c r="H3" s="20"/>
+      <c r="I3" s="20"/>
+      <c r="J3" s="20"/>
+      <c r="K3" s="20"/>
+      <c r="L3" s="20"/>
+      <c r="M3" s="20"/>
+      <c r="N3" s="20"/>
+      <c r="W3" s="28"/>
+      <c r="Y3" s="28"/>
+      <c r="Z3" s="28"/>
       <c r="AC3" s="15"/>
       <c r="AD3" s="15"/>
       <c r="AE3" s="15"/>
       <c r="AF3" s="15"/>
       <c r="AG3" s="15"/>
+      <c r="AH3" s="15"/>
     </row>
-    <row r="4" spans="1:33" s="4" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="K4" s="52"/>
-      <c r="V4" s="5"/>
-      <c r="X4" s="5"/>
+    <row r="4" spans="1:34" s="4" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="K4" s="21"/>
+      <c r="W4" s="5"/>
       <c r="Y4" s="5"/>
-      <c r="AB4" s="5"/>
+      <c r="Z4" s="5"/>
       <c r="AC4" s="5"/>
       <c r="AD4" s="5"/>
       <c r="AE4" s="5"/>
       <c r="AF4" s="5"/>
       <c r="AG4" s="5"/>
+      <c r="AH4" s="5"/>
     </row>
-    <row r="5" spans="1:33" s="6" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="36" t="s">
+    <row r="5" spans="1:34" s="6" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="75" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="23" t="s">
+      <c r="C5" s="35" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="30" t="s">
+      <c r="D5" s="78" t="s">
         <v>21</v>
       </c>
-      <c r="E5" s="23" t="s">
+      <c r="E5" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="F5" s="23" t="s">
+      <c r="F5" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="G5" s="23" t="s">
+      <c r="G5" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="H5" s="53" t="s">
+      <c r="H5" s="65" t="s">
         <v>22</v>
       </c>
-      <c r="I5" s="54" t="s">
+      <c r="I5" s="46" t="s">
         <v>4</v>
       </c>
-      <c r="J5" s="55"/>
-      <c r="K5" s="56" t="s">
+      <c r="J5" s="47"/>
+      <c r="K5" s="50" t="s">
         <v>23</v>
       </c>
-      <c r="L5" s="33" t="s">
+      <c r="L5" s="53" t="s">
         <v>24</v>
       </c>
-      <c r="M5" s="39" t="s">
+      <c r="M5" s="56" t="s">
         <v>15</v>
       </c>
-      <c r="N5" s="40"/>
-      <c r="O5" s="40"/>
-      <c r="P5" s="40"/>
-      <c r="Q5" s="40"/>
-      <c r="R5" s="40"/>
-      <c r="S5" s="40"/>
-      <c r="T5" s="41"/>
-      <c r="U5" s="17"/>
-      <c r="V5" s="79"/>
-      <c r="W5" s="17"/>
-      <c r="X5" s="79"/>
-      <c r="Y5" s="79"/>
-      <c r="Z5" s="17"/>
+      <c r="N5" s="57"/>
+      <c r="O5" s="57"/>
+      <c r="P5" s="57"/>
+      <c r="Q5" s="57"/>
+      <c r="R5" s="57"/>
+      <c r="S5" s="57"/>
+      <c r="T5" s="57"/>
+      <c r="U5" s="58"/>
+      <c r="V5" s="17"/>
+      <c r="W5" s="29"/>
+      <c r="X5" s="17"/>
+      <c r="Y5" s="29"/>
+      <c r="Z5" s="29"/>
       <c r="AA5" s="17"/>
-      <c r="AB5" s="57" t="s">
+      <c r="AB5" s="17"/>
+      <c r="AC5" s="59" t="s">
         <v>25</v>
       </c>
-      <c r="AC5" s="58"/>
-      <c r="AD5" s="58"/>
-      <c r="AE5" s="58"/>
-      <c r="AF5" s="58"/>
-      <c r="AG5" s="59"/>
+      <c r="AD5" s="60"/>
+      <c r="AE5" s="60"/>
+      <c r="AF5" s="60"/>
+      <c r="AG5" s="60"/>
+      <c r="AH5" s="61"/>
     </row>
-    <row r="6" spans="1:33" s="6" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="36"/>
-      <c r="C6" s="24"/>
-      <c r="D6" s="31"/>
-      <c r="E6" s="24"/>
-      <c r="F6" s="24"/>
-      <c r="G6" s="24"/>
-      <c r="H6" s="53"/>
-      <c r="I6" s="60"/>
-      <c r="J6" s="61"/>
-      <c r="K6" s="62"/>
-      <c r="L6" s="34"/>
-      <c r="M6" s="42" t="s">
+    <row r="6" spans="1:34" s="6" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="75"/>
+      <c r="C6" s="36"/>
+      <c r="D6" s="79"/>
+      <c r="E6" s="36"/>
+      <c r="F6" s="36"/>
+      <c r="G6" s="36"/>
+      <c r="H6" s="65"/>
+      <c r="I6" s="48"/>
+      <c r="J6" s="49"/>
+      <c r="K6" s="51"/>
+      <c r="L6" s="54"/>
+      <c r="M6" s="62" t="s">
         <v>26</v>
       </c>
-      <c r="N6" s="63" t="s">
+      <c r="N6" s="64" t="s">
         <v>27</v>
       </c>
-      <c r="O6" s="53" t="s">
+      <c r="O6" s="65" t="s">
         <v>28</v>
       </c>
-      <c r="P6" s="53" t="s">
+      <c r="P6" s="65" t="s">
         <v>16</v>
       </c>
-      <c r="Q6" s="42" t="s">
+      <c r="Q6" s="62" t="s">
         <v>29</v>
       </c>
-      <c r="R6" s="26" t="s">
+      <c r="R6" s="69" t="s">
         <v>30</v>
       </c>
-      <c r="S6" s="28" t="s">
+      <c r="S6" s="71" t="s">
         <v>11</v>
       </c>
-      <c r="T6" s="64" t="s">
+      <c r="T6" s="71" t="s">
+        <v>41</v>
+      </c>
+      <c r="U6" s="73" t="s">
         <v>31</v>
       </c>
-      <c r="U6" s="65" t="s">
+      <c r="V6" s="66" t="s">
         <v>32</v>
       </c>
-      <c r="V6" s="66"/>
-      <c r="W6" s="67" t="s">
+      <c r="W6" s="67"/>
+      <c r="X6" s="68" t="s">
         <v>33</v>
       </c>
-      <c r="X6" s="67"/>
-      <c r="Y6" s="80" t="s">
+      <c r="Y6" s="68"/>
+      <c r="Z6" s="30" t="s">
         <v>34</v>
       </c>
-      <c r="Z6" s="69" t="s">
+      <c r="AA6" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="AA6" s="70" t="s">
+      <c r="AB6" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="AB6" s="19" t="s">
+      <c r="AC6" s="76" t="s">
         <v>5</v>
       </c>
-      <c r="AC6" s="21" t="s">
+      <c r="AD6" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="AD6" s="19" t="s">
+      <c r="AE6" s="76" t="s">
         <v>7</v>
       </c>
-      <c r="AE6" s="21" t="s">
+      <c r="AF6" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="AF6" s="21" t="s">
+      <c r="AG6" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="AG6" s="71" t="s">
+      <c r="AH6" s="33" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:33" s="7" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="36"/>
-      <c r="C7" s="25"/>
-      <c r="D7" s="32"/>
-      <c r="E7" s="25"/>
-      <c r="F7" s="25"/>
-      <c r="G7" s="25"/>
-      <c r="H7" s="53"/>
+    <row r="7" spans="1:34" s="7" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="75"/>
+      <c r="C7" s="37"/>
+      <c r="D7" s="80"/>
+      <c r="E7" s="37"/>
+      <c r="F7" s="37"/>
+      <c r="G7" s="37"/>
+      <c r="H7" s="65"/>
       <c r="I7" s="18" t="s">
         <v>17</v>
       </c>
       <c r="J7" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="K7" s="72"/>
-      <c r="L7" s="35"/>
-      <c r="M7" s="43"/>
-      <c r="N7" s="63"/>
-      <c r="O7" s="53"/>
-      <c r="P7" s="53"/>
-      <c r="Q7" s="43"/>
-      <c r="R7" s="27"/>
-      <c r="S7" s="29"/>
-      <c r="T7" s="73"/>
-      <c r="U7" s="68" t="s">
+      <c r="K7" s="52"/>
+      <c r="L7" s="55"/>
+      <c r="M7" s="63"/>
+      <c r="N7" s="64"/>
+      <c r="O7" s="65"/>
+      <c r="P7" s="65"/>
+      <c r="Q7" s="63"/>
+      <c r="R7" s="70"/>
+      <c r="S7" s="72"/>
+      <c r="T7" s="72"/>
+      <c r="U7" s="74"/>
+      <c r="V7" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="V7" s="80" t="s">
+      <c r="W7" s="30" t="s">
         <v>38</v>
       </c>
-      <c r="W7" s="68" t="s">
+      <c r="X7" s="22" t="s">
         <v>39</v>
       </c>
-      <c r="X7" s="80" t="s">
+      <c r="Y7" s="30" t="s">
         <v>38</v>
       </c>
-      <c r="Y7" s="80" t="s">
+      <c r="Z7" s="30" t="s">
         <v>38</v>
       </c>
-      <c r="Z7" s="68" t="s">
+      <c r="AA7" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="AA7" s="74" t="s">
+      <c r="AB7" s="25" t="s">
         <v>40</v>
       </c>
-      <c r="AB7" s="20"/>
-      <c r="AC7" s="22"/>
-      <c r="AD7" s="20"/>
-      <c r="AE7" s="22"/>
-      <c r="AF7" s="22"/>
-      <c r="AG7" s="75"/>
+      <c r="AC7" s="77"/>
+      <c r="AD7" s="32"/>
+      <c r="AE7" s="77"/>
+      <c r="AF7" s="32"/>
+      <c r="AG7" s="32"/>
+      <c r="AH7" s="34"/>
     </row>
-    <row r="8" spans="1:33" s="8" customFormat="1" ht="9.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:34" s="8" customFormat="1" ht="9.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="9">
         <v>1</v>
       </c>
@@ -1687,42 +1631,46 @@
       <c r="AG8" s="9">
         <v>32</v>
       </c>
+      <c r="AH8" s="9">
+        <v>33</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="B8:AG8" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
-  <mergeCells count="32">
-    <mergeCell ref="AF6:AF7"/>
-    <mergeCell ref="AG6:AG7"/>
-    <mergeCell ref="C5:C7"/>
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="H1:N2"/>
-    <mergeCell ref="P1:AB1"/>
-    <mergeCell ref="P2:AB2"/>
-    <mergeCell ref="I5:J6"/>
-    <mergeCell ref="K5:K7"/>
-    <mergeCell ref="L5:L7"/>
-    <mergeCell ref="M5:T5"/>
-    <mergeCell ref="AB5:AG5"/>
-    <mergeCell ref="M6:M7"/>
-    <mergeCell ref="N6:N7"/>
-    <mergeCell ref="O6:O7"/>
-    <mergeCell ref="P6:P7"/>
-    <mergeCell ref="U6:V6"/>
-    <mergeCell ref="W6:X6"/>
-    <mergeCell ref="AE6:AE7"/>
-    <mergeCell ref="Q6:Q7"/>
-    <mergeCell ref="R6:R7"/>
-    <mergeCell ref="S6:S7"/>
-    <mergeCell ref="T6:T7"/>
+  <autoFilter ref="B8:AH8" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <mergeCells count="33">
     <mergeCell ref="B5:B7"/>
     <mergeCell ref="E5:E7"/>
     <mergeCell ref="F5:F7"/>
     <mergeCell ref="G5:G7"/>
     <mergeCell ref="H5:H7"/>
-    <mergeCell ref="AB6:AB7"/>
+    <mergeCell ref="D5:D7"/>
+    <mergeCell ref="V6:W6"/>
+    <mergeCell ref="X6:Y6"/>
+    <mergeCell ref="AF6:AF7"/>
+    <mergeCell ref="Q6:Q7"/>
+    <mergeCell ref="R6:R7"/>
+    <mergeCell ref="S6:S7"/>
+    <mergeCell ref="U6:U7"/>
     <mergeCell ref="AC6:AC7"/>
     <mergeCell ref="AD6:AD7"/>
-    <mergeCell ref="D5:D7"/>
+    <mergeCell ref="AE6:AE7"/>
+    <mergeCell ref="T6:T7"/>
+    <mergeCell ref="AG6:AG7"/>
+    <mergeCell ref="AH6:AH7"/>
+    <mergeCell ref="C5:C7"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="H1:N2"/>
+    <mergeCell ref="P1:AC1"/>
+    <mergeCell ref="P2:AC2"/>
+    <mergeCell ref="I5:J6"/>
+    <mergeCell ref="K5:K7"/>
+    <mergeCell ref="L5:L7"/>
+    <mergeCell ref="M5:U5"/>
+    <mergeCell ref="AC5:AH5"/>
+    <mergeCell ref="M6:M7"/>
+    <mergeCell ref="N6:N7"/>
+    <mergeCell ref="O6:O7"/>
+    <mergeCell ref="P6:P7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
